--- a/biology/Zoologie/Bhutanitis_lidderdalii/Bhutanitis_lidderdalii.xlsx
+++ b/biology/Zoologie/Bhutanitis_lidderdalii/Bhutanitis_lidderdalii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis lidderdalii est un lépidoptère appartenant à la famille des Papilionidae, à la sous-famille des Parnassiinae et au genre Bhutanitis.
 </t>
@@ -511,14 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bhutanitis lidderdalii a été nommé par William Stephen Atkinson en 1873[1].
-Synonymes : Armandia lidderdalei[1].
-Sous-espèces
-Bhutanitis lidderdalii lidderdalii
-Bhutanitis lidderdalii ocellatomaculata Igarashi, 1979 ; dans le nord de la Thaïlande.
-Bhutanitis lidderdalii spinosa dans le sud-ouest de la Chine[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis lidderdalii a été nommé par William Stephen Atkinson en 1873.
+Synonymes : Armandia lidderdalei.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bhutanitis lidderdalii se nomme Bhutan Glory en anglais.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bhutanitis lidderdalii lidderdalii
+Bhutanitis lidderdalii ocellatomaculata Igarashi, 1979 ; dans le nord de la Thaïlande.
+Bhutanitis lidderdalii spinosa dans le sud-ouest de la Chine.</t>
         </is>
       </c>
     </row>
@@ -574,12 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bhutanitis lidderdalii est un papillon spectaculaire, de couleur marron à noir, marqué de fines lignes blanches, aux ailes antérieures arrondies et aux ailes postérieures à queus dont la médiane est la plus grande, avec une large tache rouge à rose, des lunules marginales et entre de gros ocelles postdiscaux.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis lidderdalii se nomme Bhutan Glory en anglais.
 </t>
         </is>
       </c>
@@ -605,15 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations en mai-juin puis en d'août à octobre.
-Plantes hôtes
-Ses plantes hôtes sont des aristoloches Aristolochia griffithii, Aristolochia kaempferii, Aristolochia mandshuriensis et Aristolochia shimadai[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis lidderdalii est un papillon spectaculaire, de couleur marron à noir, marqué de fines lignes blanches, aux ailes antérieures arrondies et aux ailes postérieures à queus dont la médiane est la plus grande, avec une large tache rouge à rose, des lunules marginales et entre de gros ocelles postdiscaux.
 </t>
         </is>
       </c>
@@ -639,12 +658,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il réside au Bhoutan, dans le nord de l'Inde, l'ouest et le sud-ouest de la Chine et dans le nord de la Thaïlande[1].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations en mai-juin puis en d'août à octobre.
 </t>
         </is>
       </c>
@@ -670,10 +695,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des aristoloches Aristolochia griffithii, Aristolochia kaempferii, Aristolochia mandshuriensis et Aristolochia shimadai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bhutanitis_lidderdalii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bhutanitis_lidderdalii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside au Bhoutan, dans le nord de l'Inde, l'ouest et le sud-ouest de la Chine et dans le nord de la Thaïlande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bhutanitis_lidderdalii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bhutanitis_lidderdalii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis lidderdalii est protégé en Inde.
 Il est sur la liste de la convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES).
